--- a/Proyecto parte de newthon-raphson.xlsx
+++ b/Proyecto parte de newthon-raphson.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Escuela\Documents\AGO-DIC 2020\Metodos numericos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wendy Bárcenas\Documents\TECNOLOGICO DE MONTERREY\INGENIERIA EN BIOTECNOLOGIA\QUINTO SEMESTRE\METODOS NUMERICOS\PROYECTO PARCIAL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E335D3F8-0CB0-4DE3-A8C7-67A52B1B5690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0DFB832-FB86-4334-A220-F5391E61C2D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -237,12 +237,6 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -258,6 +252,12 @@
     <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,7 +278,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -944,7 +944,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -976,73 +976,73 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f>F1</f>
         <v>-10</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <f>-(F4^2)+(40*F4)+500</f>
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f>-(2*F4)+40</f>
         <v>60</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <f>F4-(G4/H4)</f>
         <v>-10</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <f>-(I4^2)+(40*I4)+500</f>
         <v>0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>10^-4</f>
         <v>1E-4</v>
       </c>
-      <c r="L4" s="4" t="str">
+      <c r="L4" s="2" t="str">
         <f>IF(ABS(I4-F4)/ABS(I4)&lt;K4,"exito","fracaso")</f>
         <v>exito</v>
       </c>
-      <c r="M4" s="4" t="str">
+      <c r="M4" s="2" t="str">
         <f>IF(ABS(J4)&lt;K4, "exito", "fracaso")</f>
         <v>exito</v>
       </c>
@@ -1051,231 +1051,231 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <f>E4+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f>I4</f>
         <v>-10</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G9" si="0">-(F5^2)+(40*F5)+500</f>
         <v>0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f t="shared" ref="H5:H9" si="1">-(2*F5)+40</f>
         <v>60</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <f t="shared" ref="I5:I6" si="2">F5-(G5/H5)</f>
         <v>-10</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <f t="shared" ref="J5:J9" si="3">-(I5^2)+(40*I5)+500</f>
         <v>0</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <f t="shared" ref="K5:K9" si="4">10^-4</f>
         <v>1E-4</v>
       </c>
-      <c r="L5" s="4" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" ref="L5:L6" si="5">IF(ABS(I5-F5)/ABS(I5)&lt;K5,"exito","fracaso")</f>
         <v>exito</v>
       </c>
-      <c r="M5" s="4" t="str">
+      <c r="M5" s="2" t="str">
         <f t="shared" ref="M5:M6" si="6">IF(ABS(J5)&lt;K5, "exito", "fracaso")</f>
         <v>exito</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f t="shared" ref="E6:E9" si="7">E5+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <f>I5</f>
         <v>-10</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <f t="shared" si="4"/>
         <v>1E-4</v>
       </c>
-      <c r="L6" s="4" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="5"/>
         <v>exito</v>
       </c>
-      <c r="M6" s="4" t="str">
+      <c r="M6" s="2" t="str">
         <f t="shared" si="6"/>
         <v>exito</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <f>-13</f>
         <v>-13</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <f>-(B7^2)+(40*B7)+500</f>
         <v>-189</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" ref="F7:F9" si="8">I6</f>
         <v>-10</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <f t="shared" ref="I7:I9" si="9">F7-(G7/H7)</f>
         <v>-10</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f t="shared" si="4"/>
         <v>1E-4</v>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" ref="L7:L9" si="10">IF(ABS(I7-F7)/ABS(I7)&lt;K7,"exito","fracaso")</f>
         <v>exito</v>
       </c>
-      <c r="M7" s="4" t="str">
+      <c r="M7" s="2" t="str">
         <f t="shared" ref="M7:M9" si="11">IF(ABS(J7)&lt;K7, "exito", "fracaso")</f>
         <v>exito</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <f>B7+1.5</f>
         <v>-11.5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f t="shared" ref="C8:C37" si="12">-(B8^2)+(40*B8)+500</f>
         <v>-92.25</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f t="shared" si="8"/>
         <v>-10</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <f t="shared" si="9"/>
         <v>-10</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f t="shared" si="4"/>
         <v>1E-4</v>
       </c>
-      <c r="L8" s="4" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="10"/>
         <v>exito</v>
       </c>
-      <c r="M8" s="4" t="str">
+      <c r="M8" s="2" t="str">
         <f t="shared" si="11"/>
         <v>exito</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <f t="shared" ref="B9:B37" si="13">B8+1.5</f>
         <v>-10</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f t="shared" si="8"/>
         <v>-10</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <f t="shared" si="9"/>
         <v>-10</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <f t="shared" si="4"/>
         <v>1E-4</v>
       </c>
-      <c r="L9" s="4" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="10"/>
         <v>exito</v>
       </c>
-      <c r="M9" s="4" t="str">
+      <c r="M9" s="2" t="str">
         <f t="shared" si="11"/>
         <v>exito</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <f t="shared" si="13"/>
         <v>-8.5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <f t="shared" si="12"/>
         <v>87.75</v>
       </c>
@@ -1290,11 +1290,11 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <f t="shared" si="13"/>
         <v>-7</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <f t="shared" si="12"/>
         <v>171</v>
       </c>
@@ -1309,11 +1309,11 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <f t="shared" si="13"/>
         <v>-5.5</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <f t="shared" si="12"/>
         <v>249.75</v>
       </c>
@@ -1322,11 +1322,11 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <f t="shared" si="13"/>
         <v>-4</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <f t="shared" si="12"/>
         <v>324</v>
       </c>
@@ -1338,11 +1338,11 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <f t="shared" si="13"/>
         <v>-2.5</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <f t="shared" si="12"/>
         <v>393.75</v>
       </c>
@@ -1351,11 +1351,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <f t="shared" si="13"/>
         <v>-1</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <f t="shared" si="12"/>
         <v>459</v>
       </c>
@@ -1364,11 +1364,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <f t="shared" si="12"/>
         <v>519.75</v>
       </c>
@@ -1377,11 +1377,11 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <f t="shared" si="12"/>
         <v>576</v>
       </c>
@@ -1390,207 +1390,207 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <f t="shared" si="12"/>
         <v>627.75</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <f t="shared" si="12"/>
         <v>675</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <f t="shared" si="12"/>
         <v>717.75</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <f t="shared" si="12"/>
         <v>756</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <f t="shared" si="13"/>
         <v>9.5</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <f t="shared" si="12"/>
         <v>789.75</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <f t="shared" si="12"/>
         <v>819</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <f t="shared" si="13"/>
         <v>12.5</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <f t="shared" si="12"/>
         <v>843.75</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <f t="shared" si="12"/>
         <v>864</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <f t="shared" si="13"/>
         <v>15.5</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <f t="shared" si="12"/>
         <v>879.75</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <f t="shared" si="12"/>
         <v>891</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <f t="shared" si="13"/>
         <v>18.5</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <f t="shared" si="12"/>
         <v>897.75</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="12">
         <f t="shared" si="12"/>
         <v>900</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <f t="shared" si="13"/>
         <v>21.5</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="12">
         <f t="shared" si="12"/>
         <v>897.75</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="14">
+      <c r="B31" s="12">
         <f t="shared" si="13"/>
         <v>23</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <f t="shared" si="12"/>
         <v>891</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <f t="shared" si="13"/>
         <v>24.5</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <f t="shared" si="12"/>
         <v>879.75</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <f t="shared" si="12"/>
         <v>864</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <f t="shared" si="13"/>
         <v>27.5</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <f t="shared" si="12"/>
         <v>843.75</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <f t="shared" si="12"/>
         <v>819</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <f t="shared" si="13"/>
         <v>30.5</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <f t="shared" si="12"/>
         <v>789.75</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <f t="shared" si="12"/>
         <v>756</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B38" s="14"/>
+      <c r="B38" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1611,20 +1611,20 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
